--- a/FCS测试结果/测试用例_result_2022_10_05_16_56_27.xlsx
+++ b/FCS测试结果/测试用例_result_2022_10_05_16_56_27.xlsx
@@ -6468,6 +6468,16 @@
           <t>ppt_0_005.png</t>
         </is>
       </c>
+      <c r="K6" s="0" t="inlineStr">
+        <is>
+          <t>ppt_0_005.png</t>
+        </is>
+      </c>
+      <c r="L6" s="12" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customFormat="1" customHeight="1" s="2">
       <c r="A7" s="2" t="inlineStr">
@@ -6564,6 +6574,16 @@
           <t>ppt_0_007.png</t>
         </is>
       </c>
+      <c r="K8" s="0" t="inlineStr">
+        <is>
+          <t>ppt_0_007.png</t>
+        </is>
+      </c>
+      <c r="L8" s="12" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15.6" customFormat="1" customHeight="1" s="2">
       <c r="A9" s="2" t="inlineStr">
@@ -6612,6 +6632,14 @@
           <t>ppt_0_008.png</t>
         </is>
       </c>
+      <c r="K9" s="0" t="inlineStr">
+        <is>
+          <t>ppt_0_008.png</t>
+        </is>
+      </c>
+      <c r="L9" s="13" t="n">
+        <v>712.1926310697128</v>
+      </c>
     </row>
     <row r="10" ht="15.6" customFormat="1" customHeight="1" s="2">
       <c r="A10" s="2" t="inlineStr">
@@ -6660,6 +6688,16 @@
           <t>ppt_0_009.png</t>
         </is>
       </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>ppt_0_009.png</t>
+        </is>
+      </c>
+      <c r="L10" s="12" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.6" customFormat="1" customHeight="1" s="2">
       <c r="A11" s="2" t="inlineStr">
@@ -6707,6 +6745,14 @@
         <is>
           <t>ppt_0_010.png</t>
         </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>ppt_0_010.png</t>
+        </is>
+      </c>
+      <c r="L11" s="13" t="n">
+        <v>712.0464263524184</v>
       </c>
     </row>
     <row r="12" ht="15.6" customFormat="1" customHeight="1" s="2">
@@ -8783,128 +8829,133 @@
     <hyperlink ref="B6" r:id="rId9"/>
     <hyperlink ref="H6" r:id="rId10"/>
     <hyperlink ref="J6" r:id="rId11"/>
-    <hyperlink ref="B7" r:id="rId12"/>
-    <hyperlink ref="H7" r:id="rId13"/>
-    <hyperlink ref="J7" r:id="rId14"/>
-    <hyperlink ref="B8" r:id="rId15"/>
-    <hyperlink ref="H8" r:id="rId16"/>
-    <hyperlink ref="J8" r:id="rId17"/>
-    <hyperlink ref="B9" r:id="rId18"/>
-    <hyperlink ref="H9" r:id="rId19"/>
-    <hyperlink ref="J9" r:id="rId20"/>
-    <hyperlink ref="B10" r:id="rId21"/>
-    <hyperlink ref="H10" r:id="rId22"/>
-    <hyperlink ref="J10" r:id="rId23"/>
-    <hyperlink ref="B11" r:id="rId24"/>
-    <hyperlink ref="H11" r:id="rId25"/>
-    <hyperlink ref="J11" r:id="rId26"/>
-    <hyperlink ref="B12" r:id="rId27"/>
-    <hyperlink ref="H12" r:id="rId28"/>
-    <hyperlink ref="J12" r:id="rId29"/>
-    <hyperlink ref="B13" r:id="rId30"/>
-    <hyperlink ref="H13" r:id="rId31"/>
-    <hyperlink ref="B14" r:id="rId32"/>
-    <hyperlink ref="H14" r:id="rId33"/>
-    <hyperlink ref="B15" r:id="rId34"/>
-    <hyperlink ref="H15" r:id="rId35"/>
-    <hyperlink ref="B16" r:id="rId36"/>
-    <hyperlink ref="H16" r:id="rId37"/>
-    <hyperlink ref="B17" r:id="rId38"/>
-    <hyperlink ref="H17" r:id="rId39"/>
-    <hyperlink ref="B18" r:id="rId40"/>
-    <hyperlink ref="H18" r:id="rId41"/>
-    <hyperlink ref="B19" r:id="rId42"/>
-    <hyperlink ref="H19" r:id="rId43"/>
-    <hyperlink ref="B20" r:id="rId44"/>
-    <hyperlink ref="H20" r:id="rId45"/>
-    <hyperlink ref="B21" r:id="rId46"/>
-    <hyperlink ref="H21" r:id="rId47"/>
-    <hyperlink ref="B22" r:id="rId48"/>
-    <hyperlink ref="H22" r:id="rId49"/>
-    <hyperlink ref="B23" r:id="rId50"/>
-    <hyperlink ref="B24" r:id="rId51"/>
-    <hyperlink ref="B25" r:id="rId52"/>
-    <hyperlink ref="H25" r:id="rId53"/>
-    <hyperlink ref="B26" r:id="rId54"/>
-    <hyperlink ref="H26" r:id="rId55"/>
-    <hyperlink ref="B27" r:id="rId56"/>
-    <hyperlink ref="H27" r:id="rId57"/>
-    <hyperlink ref="B28" r:id="rId58"/>
-    <hyperlink ref="H28" r:id="rId59"/>
-    <hyperlink ref="J28" r:id="rId60"/>
-    <hyperlink ref="K28" r:id="rId61"/>
-    <hyperlink ref="B29" r:id="rId62"/>
-    <hyperlink ref="H29" r:id="rId63"/>
-    <hyperlink ref="J29" r:id="rId64"/>
-    <hyperlink ref="K29" r:id="rId65"/>
-    <hyperlink ref="B30" r:id="rId66"/>
-    <hyperlink ref="H30" r:id="rId67"/>
-    <hyperlink ref="J30" r:id="rId68"/>
-    <hyperlink ref="K30" r:id="rId69"/>
-    <hyperlink ref="B31" r:id="rId70"/>
-    <hyperlink ref="H31" r:id="rId71"/>
-    <hyperlink ref="J31" r:id="rId72"/>
-    <hyperlink ref="K31" r:id="rId73"/>
-    <hyperlink ref="B32" r:id="rId74"/>
-    <hyperlink ref="H32" r:id="rId75"/>
-    <hyperlink ref="J32" r:id="rId76"/>
-    <hyperlink ref="K32" r:id="rId77"/>
-    <hyperlink ref="B33" r:id="rId78"/>
-    <hyperlink ref="H33" r:id="rId79"/>
-    <hyperlink ref="J33" r:id="rId80"/>
-    <hyperlink ref="K33" r:id="rId81"/>
-    <hyperlink ref="B34" r:id="rId82"/>
-    <hyperlink ref="H34" r:id="rId83"/>
-    <hyperlink ref="J34" r:id="rId84"/>
-    <hyperlink ref="K34" r:id="rId85"/>
-    <hyperlink ref="B35" r:id="rId86"/>
-    <hyperlink ref="H35" r:id="rId87"/>
-    <hyperlink ref="J35" r:id="rId88"/>
-    <hyperlink ref="K35" r:id="rId89"/>
-    <hyperlink ref="B36" r:id="rId90"/>
-    <hyperlink ref="H36" r:id="rId91"/>
-    <hyperlink ref="J36" r:id="rId92"/>
-    <hyperlink ref="K36" r:id="rId93"/>
-    <hyperlink ref="B37" r:id="rId94"/>
-    <hyperlink ref="H37" r:id="rId95"/>
-    <hyperlink ref="J37" r:id="rId96"/>
-    <hyperlink ref="K37" r:id="rId97"/>
-    <hyperlink ref="B38" r:id="rId98"/>
-    <hyperlink ref="H38" r:id="rId99"/>
-    <hyperlink ref="J38" r:id="rId100"/>
-    <hyperlink ref="K38" r:id="rId101"/>
-    <hyperlink ref="B39" r:id="rId102"/>
-    <hyperlink ref="H39" r:id="rId103"/>
-    <hyperlink ref="J39" r:id="rId104"/>
-    <hyperlink ref="K39" r:id="rId105"/>
-    <hyperlink ref="B40" r:id="rId106"/>
-    <hyperlink ref="H40" r:id="rId107"/>
-    <hyperlink ref="J40" r:id="rId108"/>
-    <hyperlink ref="K40" r:id="rId109"/>
-    <hyperlink ref="B41" r:id="rId110"/>
-    <hyperlink ref="B42" r:id="rId111"/>
-    <hyperlink ref="B43" r:id="rId112"/>
-    <hyperlink ref="B44" r:id="rId113"/>
-    <hyperlink ref="B45" r:id="rId114"/>
-    <hyperlink ref="B46" r:id="rId115"/>
-    <hyperlink ref="B47" r:id="rId116"/>
-    <hyperlink ref="B48" r:id="rId117"/>
-    <hyperlink ref="B49" r:id="rId118"/>
-    <hyperlink ref="B50" r:id="rId119"/>
-    <hyperlink ref="B51" r:id="rId120"/>
-    <hyperlink ref="B52" r:id="rId121"/>
-    <hyperlink ref="H52" r:id="rId122"/>
-    <hyperlink ref="J52" r:id="rId123"/>
-    <hyperlink ref="K52" r:id="rId124"/>
-    <hyperlink ref="B53" r:id="rId125"/>
-    <hyperlink ref="B54" r:id="rId126"/>
-    <hyperlink ref="H54" r:id="rId127"/>
-    <hyperlink ref="J54" r:id="rId128"/>
-    <hyperlink ref="K54" r:id="rId129"/>
-    <hyperlink ref="B55" r:id="rId130"/>
-    <hyperlink ref="H55" r:id="rId131"/>
-    <hyperlink ref="J55" r:id="rId132"/>
-    <hyperlink ref="K55" r:id="rId133"/>
+    <hyperlink ref="K6" r:id="rId12"/>
+    <hyperlink ref="B7" r:id="rId13"/>
+    <hyperlink ref="H7" r:id="rId14"/>
+    <hyperlink ref="J7" r:id="rId15"/>
+    <hyperlink ref="B8" r:id="rId16"/>
+    <hyperlink ref="H8" r:id="rId17"/>
+    <hyperlink ref="J8" r:id="rId18"/>
+    <hyperlink ref="K8" r:id="rId19"/>
+    <hyperlink ref="B9" r:id="rId20"/>
+    <hyperlink ref="H9" r:id="rId21"/>
+    <hyperlink ref="J9" r:id="rId22"/>
+    <hyperlink ref="K9" r:id="rId23"/>
+    <hyperlink ref="B10" r:id="rId24"/>
+    <hyperlink ref="H10" r:id="rId25"/>
+    <hyperlink ref="J10" r:id="rId26"/>
+    <hyperlink ref="K10" r:id="rId27"/>
+    <hyperlink ref="B11" r:id="rId28"/>
+    <hyperlink ref="H11" r:id="rId29"/>
+    <hyperlink ref="J11" r:id="rId30"/>
+    <hyperlink ref="K11" r:id="rId31"/>
+    <hyperlink ref="B12" r:id="rId32"/>
+    <hyperlink ref="H12" r:id="rId33"/>
+    <hyperlink ref="J12" r:id="rId34"/>
+    <hyperlink ref="B13" r:id="rId35"/>
+    <hyperlink ref="H13" r:id="rId36"/>
+    <hyperlink ref="B14" r:id="rId37"/>
+    <hyperlink ref="H14" r:id="rId38"/>
+    <hyperlink ref="B15" r:id="rId39"/>
+    <hyperlink ref="H15" r:id="rId40"/>
+    <hyperlink ref="B16" r:id="rId41"/>
+    <hyperlink ref="H16" r:id="rId42"/>
+    <hyperlink ref="B17" r:id="rId43"/>
+    <hyperlink ref="H17" r:id="rId44"/>
+    <hyperlink ref="B18" r:id="rId45"/>
+    <hyperlink ref="H18" r:id="rId46"/>
+    <hyperlink ref="B19" r:id="rId47"/>
+    <hyperlink ref="H19" r:id="rId48"/>
+    <hyperlink ref="B20" r:id="rId49"/>
+    <hyperlink ref="H20" r:id="rId50"/>
+    <hyperlink ref="B21" r:id="rId51"/>
+    <hyperlink ref="H21" r:id="rId52"/>
+    <hyperlink ref="B22" r:id="rId53"/>
+    <hyperlink ref="H22" r:id="rId54"/>
+    <hyperlink ref="B23" r:id="rId55"/>
+    <hyperlink ref="B24" r:id="rId56"/>
+    <hyperlink ref="B25" r:id="rId57"/>
+    <hyperlink ref="H25" r:id="rId58"/>
+    <hyperlink ref="B26" r:id="rId59"/>
+    <hyperlink ref="H26" r:id="rId60"/>
+    <hyperlink ref="B27" r:id="rId61"/>
+    <hyperlink ref="H27" r:id="rId62"/>
+    <hyperlink ref="B28" r:id="rId63"/>
+    <hyperlink ref="H28" r:id="rId64"/>
+    <hyperlink ref="J28" r:id="rId65"/>
+    <hyperlink ref="K28" r:id="rId66"/>
+    <hyperlink ref="B29" r:id="rId67"/>
+    <hyperlink ref="H29" r:id="rId68"/>
+    <hyperlink ref="J29" r:id="rId69"/>
+    <hyperlink ref="K29" r:id="rId70"/>
+    <hyperlink ref="B30" r:id="rId71"/>
+    <hyperlink ref="H30" r:id="rId72"/>
+    <hyperlink ref="J30" r:id="rId73"/>
+    <hyperlink ref="K30" r:id="rId74"/>
+    <hyperlink ref="B31" r:id="rId75"/>
+    <hyperlink ref="H31" r:id="rId76"/>
+    <hyperlink ref="J31" r:id="rId77"/>
+    <hyperlink ref="K31" r:id="rId78"/>
+    <hyperlink ref="B32" r:id="rId79"/>
+    <hyperlink ref="H32" r:id="rId80"/>
+    <hyperlink ref="J32" r:id="rId81"/>
+    <hyperlink ref="K32" r:id="rId82"/>
+    <hyperlink ref="B33" r:id="rId83"/>
+    <hyperlink ref="H33" r:id="rId84"/>
+    <hyperlink ref="J33" r:id="rId85"/>
+    <hyperlink ref="K33" r:id="rId86"/>
+    <hyperlink ref="B34" r:id="rId87"/>
+    <hyperlink ref="H34" r:id="rId88"/>
+    <hyperlink ref="J34" r:id="rId89"/>
+    <hyperlink ref="K34" r:id="rId90"/>
+    <hyperlink ref="B35" r:id="rId91"/>
+    <hyperlink ref="H35" r:id="rId92"/>
+    <hyperlink ref="J35" r:id="rId93"/>
+    <hyperlink ref="K35" r:id="rId94"/>
+    <hyperlink ref="B36" r:id="rId95"/>
+    <hyperlink ref="H36" r:id="rId96"/>
+    <hyperlink ref="J36" r:id="rId97"/>
+    <hyperlink ref="K36" r:id="rId98"/>
+    <hyperlink ref="B37" r:id="rId99"/>
+    <hyperlink ref="H37" r:id="rId100"/>
+    <hyperlink ref="J37" r:id="rId101"/>
+    <hyperlink ref="K37" r:id="rId102"/>
+    <hyperlink ref="B38" r:id="rId103"/>
+    <hyperlink ref="H38" r:id="rId104"/>
+    <hyperlink ref="J38" r:id="rId105"/>
+    <hyperlink ref="K38" r:id="rId106"/>
+    <hyperlink ref="B39" r:id="rId107"/>
+    <hyperlink ref="H39" r:id="rId108"/>
+    <hyperlink ref="J39" r:id="rId109"/>
+    <hyperlink ref="K39" r:id="rId110"/>
+    <hyperlink ref="B40" r:id="rId111"/>
+    <hyperlink ref="H40" r:id="rId112"/>
+    <hyperlink ref="J40" r:id="rId113"/>
+    <hyperlink ref="K40" r:id="rId114"/>
+    <hyperlink ref="B41" r:id="rId115"/>
+    <hyperlink ref="B42" r:id="rId116"/>
+    <hyperlink ref="B43" r:id="rId117"/>
+    <hyperlink ref="B44" r:id="rId118"/>
+    <hyperlink ref="B45" r:id="rId119"/>
+    <hyperlink ref="B46" r:id="rId120"/>
+    <hyperlink ref="B47" r:id="rId121"/>
+    <hyperlink ref="B48" r:id="rId122"/>
+    <hyperlink ref="B49" r:id="rId123"/>
+    <hyperlink ref="B50" r:id="rId124"/>
+    <hyperlink ref="B51" r:id="rId125"/>
+    <hyperlink ref="B52" r:id="rId126"/>
+    <hyperlink ref="H52" r:id="rId127"/>
+    <hyperlink ref="J52" r:id="rId128"/>
+    <hyperlink ref="K52" r:id="rId129"/>
+    <hyperlink ref="B53" r:id="rId130"/>
+    <hyperlink ref="B54" r:id="rId131"/>
+    <hyperlink ref="H54" r:id="rId132"/>
+    <hyperlink ref="J54" r:id="rId133"/>
+    <hyperlink ref="K54" r:id="rId134"/>
+    <hyperlink ref="B55" r:id="rId135"/>
+    <hyperlink ref="H55" r:id="rId136"/>
+    <hyperlink ref="J55" r:id="rId137"/>
+    <hyperlink ref="K55" r:id="rId138"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11761,7 +11812,7 @@
           <t>doc_61_057.png</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="K58" s="0" t="inlineStr">
         <is>
           <t>doc_61_057.png</t>
         </is>
@@ -12232,6 +12283,11 @@
       <c r="I6" s="8" t="n">
         <v>1</v>
       </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>excel_61_005.png</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customFormat="1" customHeight="1" s="2">
       <c r="A7" s="2" t="inlineStr">
@@ -12274,6 +12330,11 @@
       </c>
       <c r="I7" s="8" t="n">
         <v>1</v>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>excel_61_006.png</t>
+        </is>
       </c>
     </row>
     <row r="8" ht="15.6" customFormat="1" customHeight="1" s="2">
@@ -14405,122 +14466,124 @@
     <hyperlink ref="H5" r:id="rId8"/>
     <hyperlink ref="B6" r:id="rId9"/>
     <hyperlink ref="H6" r:id="rId10"/>
-    <hyperlink ref="B7" r:id="rId11"/>
-    <hyperlink ref="H7" r:id="rId12"/>
-    <hyperlink ref="B8" r:id="rId13"/>
-    <hyperlink ref="H8" r:id="rId14"/>
-    <hyperlink ref="B9" r:id="rId15"/>
-    <hyperlink ref="H9" r:id="rId16"/>
-    <hyperlink ref="B10" r:id="rId17"/>
-    <hyperlink ref="H10" r:id="rId18"/>
-    <hyperlink ref="B11" r:id="rId19"/>
-    <hyperlink ref="H11" r:id="rId20"/>
-    <hyperlink ref="J11" r:id="rId21"/>
-    <hyperlink ref="K11" r:id="rId22"/>
-    <hyperlink ref="B12" r:id="rId23"/>
-    <hyperlink ref="H12" r:id="rId24"/>
-    <hyperlink ref="J12" r:id="rId25"/>
-    <hyperlink ref="K12" r:id="rId26"/>
-    <hyperlink ref="B13" r:id="rId27"/>
-    <hyperlink ref="H13" r:id="rId28"/>
-    <hyperlink ref="B14" r:id="rId29"/>
-    <hyperlink ref="H14" r:id="rId30"/>
-    <hyperlink ref="B15" r:id="rId31"/>
-    <hyperlink ref="H15" r:id="rId32"/>
-    <hyperlink ref="B16" r:id="rId33"/>
-    <hyperlink ref="H16" r:id="rId34"/>
-    <hyperlink ref="B17" r:id="rId35"/>
-    <hyperlink ref="H17" r:id="rId36"/>
-    <hyperlink ref="B18" r:id="rId37"/>
-    <hyperlink ref="H18" r:id="rId38"/>
-    <hyperlink ref="B19" r:id="rId39"/>
-    <hyperlink ref="H19" r:id="rId40"/>
-    <hyperlink ref="B20" r:id="rId41"/>
-    <hyperlink ref="H20" r:id="rId42"/>
-    <hyperlink ref="B21" r:id="rId43"/>
-    <hyperlink ref="H21" r:id="rId44"/>
-    <hyperlink ref="B22" r:id="rId45"/>
-    <hyperlink ref="H22" r:id="rId46"/>
-    <hyperlink ref="B23" r:id="rId47"/>
-    <hyperlink ref="H23" r:id="rId48"/>
-    <hyperlink ref="J23" r:id="rId49"/>
-    <hyperlink ref="K23" r:id="rId50"/>
-    <hyperlink ref="B24" r:id="rId51"/>
-    <hyperlink ref="H24" r:id="rId52"/>
-    <hyperlink ref="J24" r:id="rId53"/>
-    <hyperlink ref="K24" r:id="rId54"/>
-    <hyperlink ref="B25" r:id="rId55"/>
-    <hyperlink ref="H25" r:id="rId56"/>
-    <hyperlink ref="J25" r:id="rId57"/>
-    <hyperlink ref="K25" r:id="rId58"/>
-    <hyperlink ref="B26" r:id="rId59"/>
-    <hyperlink ref="H26" r:id="rId60"/>
-    <hyperlink ref="J26" r:id="rId61"/>
-    <hyperlink ref="K26" r:id="rId62"/>
-    <hyperlink ref="B27" r:id="rId63"/>
-    <hyperlink ref="H27" r:id="rId64"/>
-    <hyperlink ref="J27" r:id="rId65"/>
-    <hyperlink ref="K27" r:id="rId66"/>
-    <hyperlink ref="B28" r:id="rId67"/>
-    <hyperlink ref="H28" r:id="rId68"/>
-    <hyperlink ref="J28" r:id="rId69"/>
-    <hyperlink ref="K28" r:id="rId70"/>
-    <hyperlink ref="B29" r:id="rId71"/>
-    <hyperlink ref="H29" r:id="rId72"/>
-    <hyperlink ref="J29" r:id="rId73"/>
-    <hyperlink ref="K29" r:id="rId74"/>
-    <hyperlink ref="B30" r:id="rId75"/>
-    <hyperlink ref="H30" r:id="rId76"/>
-    <hyperlink ref="J30" r:id="rId77"/>
-    <hyperlink ref="K30" r:id="rId78"/>
-    <hyperlink ref="B31" r:id="rId79"/>
-    <hyperlink ref="H31" r:id="rId80"/>
-    <hyperlink ref="J31" r:id="rId81"/>
-    <hyperlink ref="K31" r:id="rId82"/>
-    <hyperlink ref="B32" r:id="rId83"/>
-    <hyperlink ref="H32" r:id="rId84"/>
-    <hyperlink ref="J32" r:id="rId85"/>
-    <hyperlink ref="K32" r:id="rId86"/>
-    <hyperlink ref="B33" r:id="rId87"/>
-    <hyperlink ref="H33" r:id="rId88"/>
-    <hyperlink ref="J33" r:id="rId89"/>
-    <hyperlink ref="K33" r:id="rId90"/>
-    <hyperlink ref="B34" r:id="rId91"/>
-    <hyperlink ref="H34" r:id="rId92"/>
-    <hyperlink ref="J34" r:id="rId93"/>
-    <hyperlink ref="K34" r:id="rId94"/>
-    <hyperlink ref="B35" r:id="rId95"/>
-    <hyperlink ref="H35" r:id="rId96"/>
-    <hyperlink ref="J35" r:id="rId97"/>
-    <hyperlink ref="K35" r:id="rId98"/>
-    <hyperlink ref="B36" r:id="rId99"/>
-    <hyperlink ref="H36" r:id="rId100"/>
-    <hyperlink ref="J36" r:id="rId101"/>
-    <hyperlink ref="K36" r:id="rId102"/>
-    <hyperlink ref="B37" r:id="rId103"/>
-    <hyperlink ref="B38" r:id="rId104"/>
-    <hyperlink ref="B39" r:id="rId105"/>
-    <hyperlink ref="B40" r:id="rId106"/>
-    <hyperlink ref="B41" r:id="rId107"/>
-    <hyperlink ref="B42" r:id="rId108"/>
-    <hyperlink ref="B43" r:id="rId109"/>
-    <hyperlink ref="B44" r:id="rId110"/>
-    <hyperlink ref="B45" r:id="rId111"/>
-    <hyperlink ref="B46" r:id="rId112"/>
-    <hyperlink ref="B47" r:id="rId113"/>
-    <hyperlink ref="B48" r:id="rId114"/>
-    <hyperlink ref="H48" r:id="rId115"/>
-    <hyperlink ref="J48" r:id="rId116"/>
-    <hyperlink ref="K48" r:id="rId117"/>
-    <hyperlink ref="B49" r:id="rId118"/>
-    <hyperlink ref="B50" r:id="rId119"/>
-    <hyperlink ref="H50" r:id="rId120"/>
-    <hyperlink ref="J50" r:id="rId121"/>
-    <hyperlink ref="K50" r:id="rId122"/>
-    <hyperlink ref="B51" r:id="rId123"/>
-    <hyperlink ref="H51" r:id="rId124"/>
-    <hyperlink ref="J51" r:id="rId125"/>
-    <hyperlink ref="K51" r:id="rId126"/>
+    <hyperlink ref="J6" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId12"/>
+    <hyperlink ref="H7" r:id="rId13"/>
+    <hyperlink ref="J7" r:id="rId14"/>
+    <hyperlink ref="B8" r:id="rId15"/>
+    <hyperlink ref="H8" r:id="rId16"/>
+    <hyperlink ref="B9" r:id="rId17"/>
+    <hyperlink ref="H9" r:id="rId18"/>
+    <hyperlink ref="B10" r:id="rId19"/>
+    <hyperlink ref="H10" r:id="rId20"/>
+    <hyperlink ref="B11" r:id="rId21"/>
+    <hyperlink ref="H11" r:id="rId22"/>
+    <hyperlink ref="J11" r:id="rId23"/>
+    <hyperlink ref="K11" r:id="rId24"/>
+    <hyperlink ref="B12" r:id="rId25"/>
+    <hyperlink ref="H12" r:id="rId26"/>
+    <hyperlink ref="J12" r:id="rId27"/>
+    <hyperlink ref="K12" r:id="rId28"/>
+    <hyperlink ref="B13" r:id="rId29"/>
+    <hyperlink ref="H13" r:id="rId30"/>
+    <hyperlink ref="B14" r:id="rId31"/>
+    <hyperlink ref="H14" r:id="rId32"/>
+    <hyperlink ref="B15" r:id="rId33"/>
+    <hyperlink ref="H15" r:id="rId34"/>
+    <hyperlink ref="B16" r:id="rId35"/>
+    <hyperlink ref="H16" r:id="rId36"/>
+    <hyperlink ref="B17" r:id="rId37"/>
+    <hyperlink ref="H17" r:id="rId38"/>
+    <hyperlink ref="B18" r:id="rId39"/>
+    <hyperlink ref="H18" r:id="rId40"/>
+    <hyperlink ref="B19" r:id="rId41"/>
+    <hyperlink ref="H19" r:id="rId42"/>
+    <hyperlink ref="B20" r:id="rId43"/>
+    <hyperlink ref="H20" r:id="rId44"/>
+    <hyperlink ref="B21" r:id="rId45"/>
+    <hyperlink ref="H21" r:id="rId46"/>
+    <hyperlink ref="B22" r:id="rId47"/>
+    <hyperlink ref="H22" r:id="rId48"/>
+    <hyperlink ref="B23" r:id="rId49"/>
+    <hyperlink ref="H23" r:id="rId50"/>
+    <hyperlink ref="J23" r:id="rId51"/>
+    <hyperlink ref="K23" r:id="rId52"/>
+    <hyperlink ref="B24" r:id="rId53"/>
+    <hyperlink ref="H24" r:id="rId54"/>
+    <hyperlink ref="J24" r:id="rId55"/>
+    <hyperlink ref="K24" r:id="rId56"/>
+    <hyperlink ref="B25" r:id="rId57"/>
+    <hyperlink ref="H25" r:id="rId58"/>
+    <hyperlink ref="J25" r:id="rId59"/>
+    <hyperlink ref="K25" r:id="rId60"/>
+    <hyperlink ref="B26" r:id="rId61"/>
+    <hyperlink ref="H26" r:id="rId62"/>
+    <hyperlink ref="J26" r:id="rId63"/>
+    <hyperlink ref="K26" r:id="rId64"/>
+    <hyperlink ref="B27" r:id="rId65"/>
+    <hyperlink ref="H27" r:id="rId66"/>
+    <hyperlink ref="J27" r:id="rId67"/>
+    <hyperlink ref="K27" r:id="rId68"/>
+    <hyperlink ref="B28" r:id="rId69"/>
+    <hyperlink ref="H28" r:id="rId70"/>
+    <hyperlink ref="J28" r:id="rId71"/>
+    <hyperlink ref="K28" r:id="rId72"/>
+    <hyperlink ref="B29" r:id="rId73"/>
+    <hyperlink ref="H29" r:id="rId74"/>
+    <hyperlink ref="J29" r:id="rId75"/>
+    <hyperlink ref="K29" r:id="rId76"/>
+    <hyperlink ref="B30" r:id="rId77"/>
+    <hyperlink ref="H30" r:id="rId78"/>
+    <hyperlink ref="J30" r:id="rId79"/>
+    <hyperlink ref="K30" r:id="rId80"/>
+    <hyperlink ref="B31" r:id="rId81"/>
+    <hyperlink ref="H31" r:id="rId82"/>
+    <hyperlink ref="J31" r:id="rId83"/>
+    <hyperlink ref="K31" r:id="rId84"/>
+    <hyperlink ref="B32" r:id="rId85"/>
+    <hyperlink ref="H32" r:id="rId86"/>
+    <hyperlink ref="J32" r:id="rId87"/>
+    <hyperlink ref="K32" r:id="rId88"/>
+    <hyperlink ref="B33" r:id="rId89"/>
+    <hyperlink ref="H33" r:id="rId90"/>
+    <hyperlink ref="J33" r:id="rId91"/>
+    <hyperlink ref="K33" r:id="rId92"/>
+    <hyperlink ref="B34" r:id="rId93"/>
+    <hyperlink ref="H34" r:id="rId94"/>
+    <hyperlink ref="J34" r:id="rId95"/>
+    <hyperlink ref="K34" r:id="rId96"/>
+    <hyperlink ref="B35" r:id="rId97"/>
+    <hyperlink ref="H35" r:id="rId98"/>
+    <hyperlink ref="J35" r:id="rId99"/>
+    <hyperlink ref="K35" r:id="rId100"/>
+    <hyperlink ref="B36" r:id="rId101"/>
+    <hyperlink ref="H36" r:id="rId102"/>
+    <hyperlink ref="J36" r:id="rId103"/>
+    <hyperlink ref="K36" r:id="rId104"/>
+    <hyperlink ref="B37" r:id="rId105"/>
+    <hyperlink ref="B38" r:id="rId106"/>
+    <hyperlink ref="B39" r:id="rId107"/>
+    <hyperlink ref="B40" r:id="rId108"/>
+    <hyperlink ref="B41" r:id="rId109"/>
+    <hyperlink ref="B42" r:id="rId110"/>
+    <hyperlink ref="B43" r:id="rId111"/>
+    <hyperlink ref="B44" r:id="rId112"/>
+    <hyperlink ref="B45" r:id="rId113"/>
+    <hyperlink ref="B46" r:id="rId114"/>
+    <hyperlink ref="B47" r:id="rId115"/>
+    <hyperlink ref="B48" r:id="rId116"/>
+    <hyperlink ref="H48" r:id="rId117"/>
+    <hyperlink ref="J48" r:id="rId118"/>
+    <hyperlink ref="K48" r:id="rId119"/>
+    <hyperlink ref="B49" r:id="rId120"/>
+    <hyperlink ref="B50" r:id="rId121"/>
+    <hyperlink ref="H50" r:id="rId122"/>
+    <hyperlink ref="J50" r:id="rId123"/>
+    <hyperlink ref="K50" r:id="rId124"/>
+    <hyperlink ref="B51" r:id="rId125"/>
+    <hyperlink ref="H51" r:id="rId126"/>
+    <hyperlink ref="J51" r:id="rId127"/>
+    <hyperlink ref="K51" r:id="rId128"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FCS测试结果/测试用例_result_2022_10_05_16_56_27.xlsx
+++ b/FCS测试结果/测试用例_result_2022_10_05_16_56_27.xlsx
@@ -6746,7 +6746,7 @@
           <t>ppt_0_010.png</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K11" s="0" t="inlineStr">
         <is>
           <t>ppt_0_010.png</t>
         </is>
@@ -14957,10 +14957,8 @@
           <t>ppt_61_006.png</t>
         </is>
       </c>
-      <c r="L7" s="12" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="L7" s="13" t="n">
+        <v>0.2165063509461096</v>
       </c>
     </row>
     <row r="8" ht="15.6" customFormat="1" customHeight="1" s="2">
@@ -15015,10 +15013,8 @@
           <t>ppt_61_007.png</t>
         </is>
       </c>
-      <c r="L8" s="12" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="L8" s="13" t="n">
+        <v>2.944141428328469</v>
       </c>
     </row>
     <row r="9" ht="15.6" customFormat="1" customHeight="1" s="2">
@@ -15131,10 +15127,8 @@
           <t>ppt_61_009.png</t>
         </is>
       </c>
-      <c r="L10" s="12" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="L10" s="13" t="n">
+        <v>3.042344387967937</v>
       </c>
     </row>
     <row r="11" ht="15.6" customFormat="1" customHeight="1" s="2">
@@ -15887,10 +15881,8 @@
           <t>ppt_61_026.png</t>
         </is>
       </c>
-      <c r="L27" s="12" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="L27" s="13" t="n">
+        <v>6624.448859740144</v>
       </c>
     </row>
     <row r="28" ht="15.6" customFormat="1" customHeight="1" s="2">
@@ -15945,10 +15937,8 @@
           <t>ppt_61_027.png</t>
         </is>
       </c>
-      <c r="L28" s="12" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="L28" s="13" t="n">
+        <v>6874.792200268675</v>
       </c>
     </row>
     <row r="29" ht="15.6" customFormat="1" customHeight="1" s="2">
@@ -16003,10 +15993,8 @@
           <t>ppt_61_028.png</t>
         </is>
       </c>
-      <c r="L29" s="12" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="L29" s="13" t="n">
+        <v>6629.248858485732</v>
       </c>
     </row>
     <row r="30" ht="15.6" customFormat="1" customHeight="1" s="2">
@@ -16061,10 +16049,8 @@
           <t>ppt_61_029.png</t>
         </is>
       </c>
-      <c r="L30" s="12" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="L30" s="13" t="n">
+        <v>6705.967285804581</v>
       </c>
     </row>
     <row r="31" ht="15.6" customFormat="1" customHeight="1" s="2">
@@ -16119,10 +16105,8 @@
           <t>ppt_61_030.png</t>
         </is>
       </c>
-      <c r="L31" s="12" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="L31" s="13" t="n">
+        <v>6520.476511237024</v>
       </c>
     </row>
     <row r="32" ht="15.6" customFormat="1" customHeight="1" s="2">
@@ -16177,10 +16161,8 @@
           <t>ppt_61_031.png</t>
         </is>
       </c>
-      <c r="L32" s="12" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="L32" s="13" t="n">
+        <v>6624.448859740144</v>
       </c>
     </row>
     <row r="33" ht="15.6" customFormat="1" customHeight="1" s="2">
@@ -16235,10 +16217,8 @@
           <t>ppt_61_032.png</t>
         </is>
       </c>
-      <c r="L33" s="12" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="L33" s="13" t="n">
+        <v>6582.467064280971</v>
       </c>
     </row>
     <row r="34" ht="15.6" customFormat="1" customHeight="1" s="2">
@@ -16293,10 +16273,8 @@
           <t>ppt_61_033.png</t>
         </is>
       </c>
-      <c r="L34" s="12" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="L34" s="13" t="n">
+        <v>6149.076095807503</v>
       </c>
     </row>
     <row r="35" ht="15.6" customFormat="1" customHeight="1" s="2">
@@ -16352,7 +16330,7 @@
         </is>
       </c>
       <c r="L35" s="13" t="n">
-        <v>417.509763171773</v>
+        <v>6746.764310839354</v>
       </c>
     </row>
     <row r="36" ht="15.6" customFormat="1" customHeight="1" s="2">
@@ -16407,10 +16385,8 @@
           <t>ppt_61_035.png</t>
         </is>
       </c>
-      <c r="L36" s="12" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="L36" s="13" t="n">
+        <v>6650.157891540762</v>
       </c>
     </row>
     <row r="37" ht="15.6" customFormat="1" customHeight="1" s="2">
@@ -16465,10 +16441,8 @@
           <t>ppt_61_036.png</t>
         </is>
       </c>
-      <c r="L37" s="12" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="L37" s="13" t="n">
+        <v>6861.10851102065</v>
       </c>
     </row>
     <row r="38" ht="15.6" customFormat="1" customHeight="1" s="2">
@@ -16523,10 +16497,8 @@
           <t>ppt_61_037.png</t>
         </is>
       </c>
-      <c r="L38" s="12" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="L38" s="13" t="n">
+        <v>6616.78223567142</v>
       </c>
     </row>
     <row r="39" ht="15.6" customFormat="1" customHeight="1" s="2">
@@ -16581,10 +16553,8 @@
           <t>ppt_61_038.png</t>
         </is>
       </c>
-      <c r="L39" s="12" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="L39" s="13" t="n">
+        <v>6568.598383419118</v>
       </c>
     </row>
     <row r="40" ht="15.6" customFormat="1" customHeight="1" s="2">
@@ -16639,10 +16609,8 @@
           <t>ppt_61_039.png</t>
         </is>
       </c>
-      <c r="L40" s="12" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="L40" s="13" t="n">
+        <v>6623.638248756542</v>
       </c>
     </row>
     <row r="41" ht="15.6" customFormat="1" customHeight="1" s="2">
@@ -16697,10 +16665,8 @@
           <t>ppt_61_040.png</t>
         </is>
       </c>
-      <c r="L41" s="12" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="L41" s="13" t="n">
+        <v>6857.749091897565</v>
       </c>
     </row>
     <row r="42" ht="15.6" customFormat="1" customHeight="1" s="2">
@@ -16755,10 +16721,8 @@
           <t>ppt_61_041.png</t>
         </is>
       </c>
-      <c r="L42" s="12" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="L42" s="13" t="n">
+        <v>6857.861839649348</v>
       </c>
     </row>
     <row r="43" ht="15.6" customFormat="1" customHeight="1" s="2">
@@ -17231,10 +17195,8 @@
           <t>ppt_61_053.png</t>
         </is>
       </c>
-      <c r="L54" s="12" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="L54" s="13" t="n">
+        <v>6861.10851102065</v>
       </c>
     </row>
     <row r="55" ht="45.75" customFormat="1" customHeight="1" s="2">
@@ -17327,10 +17289,8 @@
           <t>ppt_61_055.png</t>
         </is>
       </c>
-      <c r="L56" s="12" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="L56" s="13" t="n">
+        <v>6861.10851102065</v>
       </c>
     </row>
     <row r="57" ht="45.75" customFormat="1" customHeight="1" s="2">
@@ -17385,10 +17345,8 @@
           <t>ppt_61_056.png</t>
         </is>
       </c>
-      <c r="L57" s="12" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="L57" s="13" t="n">
+        <v>6861.10851102065</v>
       </c>
     </row>
   </sheetData>
